--- a/biology/Histoire de la zoologie et de la botanique/Leonard_Cockayne/Leonard_Cockayne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Leonard_Cockayne/Leonard_Cockayne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leonard C. Cockayne est un botaniste britannique, né le 7 avril 1855 à Sheffield et mort le 8 juillet 1934.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’Owens College de Manchester. Il se rend en Australie en 1877 et s’installe Nouvelle-Zélande peu de temps après. Il enseigne de 1881 à 1885. Il s’établit alors comme botaniste. Il se marie avec Maria Maude Blakeley.
 Outre des voyages d’explorations dans les îles sub-antarctique, Cockayne s’intéresse à l’écologie végétale et aux théories de l’hybridisation. En 1899, il publie la première études sur la succession végétale de Nouvelle-Zélande.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>New Zealand Plants and Their Story (1910).
 Observations Concerning Evolution, Derived from Ecological Studies in New Zealand (1912).
